--- a/Data/EC/NIT-9016695991.xlsx
+++ b/Data/EC/NIT-9016695991.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A581F4DB-2443-481C-BD82-AE07D927F437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{808D9A8C-E480-4444-883F-34AD40A4468F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{32F0701F-08DA-44BF-9C88-FFE109B2B9FC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BCB7C581-EE34-4687-87C2-1E05C5E5C31B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -170,7 +170,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -183,9 +185,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -340,23 +340,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -378,10 +378,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -434,7 +434,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B3937E6-F076-A3E0-78A9-958A49978336}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2AD434F-3F66-714F-512E-4F4BEF44E595}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -785,7 +785,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28057FAB-E3B1-4C80-9179-5E8C91B7567D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DBE2E93-F715-415B-A88C-BAEA240D5D2C}">
   <dimension ref="B2:J22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
